--- a/prevention/all-profiles.xlsx
+++ b/prevention/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24277" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24276" uniqueCount="2023">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T10:04:53+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3955,58 +3955,61 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
+    <t>http://fhir.kl.dk/prevention/ValueSet/EncounterClassCodes</t>
+  </si>
+  <si>
+    <t>Encounter.class.id</t>
+  </si>
+  <si>
+    <t>Encounter.class.extension</t>
+  </si>
+  <si>
+    <t>Encounter.class.system</t>
+  </si>
+  <si>
+    <t>Encounter.class.version</t>
+  </si>
+  <si>
+    <t>Encounter.class.code</t>
+  </si>
+  <si>
+    <t>Encounter.class.display</t>
+  </si>
+  <si>
+    <t>Encounter.class.userSelected</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter classes</t>
+  </si>
+  <si>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.class</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
-  </si>
-  <si>
-    <t>Encounter.class.id</t>
-  </si>
-  <si>
-    <t>Encounter.class.extension</t>
-  </si>
-  <si>
-    <t>Encounter.class.system</t>
-  </si>
-  <si>
-    <t>Encounter.class.version</t>
-  </si>
-  <si>
-    <t>Encounter.class.code</t>
-  </si>
-  <si>
-    <t>Encounter.class.display</t>
-  </si>
-  <si>
-    <t>Encounter.class.userSelected</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory</t>
-  </si>
-  <si>
-    <t>List of past encounter classes</t>
-  </si>
-  <si>
-    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.id</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.extension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.class</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +.</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
@@ -7730,7 +7733,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="166">
@@ -7738,7 +7741,7 @@
         <v>4</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="167">
@@ -7754,7 +7757,7 @@
         <v>8</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="169">
@@ -7762,7 +7765,7 @@
         <v>9</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="170">
@@ -7808,7 +7811,7 @@
         <v>20</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="176">
@@ -7852,7 +7855,7 @@
         <v>30</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="182">
@@ -7884,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="186">
@@ -7892,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="187">
@@ -7908,7 +7911,7 @@
         <v>8</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="189">
@@ -7916,7 +7919,7 @@
         <v>9</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="190">
@@ -7962,7 +7965,7 @@
         <v>20</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="196">
@@ -7998,7 +8001,7 @@
         <v>28</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="201">
@@ -8006,7 +8009,7 @@
         <v>30</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="202">
@@ -8038,7 +8041,7 @@
         <v>2</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="206">
@@ -8046,7 +8049,7 @@
         <v>4</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="207">
@@ -8062,7 +8065,7 @@
         <v>8</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="209">
@@ -8070,7 +8073,7 @@
         <v>9</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="210">
@@ -8116,7 +8119,7 @@
         <v>20</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="216">
@@ -8192,7 +8195,7 @@
         <v>2</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="226">
@@ -8200,7 +8203,7 @@
         <v>4</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="227">
@@ -8216,7 +8219,7 @@
         <v>8</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="229">
@@ -8224,7 +8227,7 @@
         <v>9</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="230">
@@ -8270,7 +8273,7 @@
         <v>20</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="236">
@@ -8306,7 +8309,7 @@
         <v>28</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="241">
@@ -8314,7 +8317,7 @@
         <v>30</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="242">
@@ -45245,13 +45248,11 @@
         <v>74</v>
       </c>
       <c r="Y352" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="Z352" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z352" s="2"/>
+      <c r="AA352" t="s" s="2">
         <v>1262</v>
-      </c>
-      <c r="AA352" t="s" s="2">
-        <v>1263</v>
       </c>
       <c r="AB352" t="s" s="2">
         <v>74</v>
@@ -45289,10 +45290,10 @@
         <v>1207</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -45392,10 +45393,10 @@
         <v>1207</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -45497,10 +45498,10 @@
         <v>1207</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -45604,10 +45605,10 @@
         <v>1207</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -45709,10 +45710,10 @@
         <v>1207</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -45814,10 +45815,10 @@
         <v>1207</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -45828,7 +45829,7 @@
         <v>75</v>
       </c>
       <c r="H358" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I358" t="s" s="2">
         <v>74</v>
@@ -45919,10 +45920,10 @@
         <v>1207</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -46026,10 +46027,10 @@
         <v>1207</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -46055,10 +46056,10 @@
         <v>305</v>
       </c>
       <c r="M360" t="s" s="2">
+        <v>1271</v>
+      </c>
+      <c r="N360" t="s" s="2">
         <v>1272</v>
-      </c>
-      <c r="N360" t="s" s="2">
-        <v>1273</v>
       </c>
       <c r="O360" s="2"/>
       <c r="P360" s="2"/>
@@ -46109,7 +46110,7 @@
         <v>74</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>75</v>
@@ -46129,10 +46130,10 @@
         <v>1207</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
@@ -46232,10 +46233,10 @@
         <v>1207</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -46337,10 +46338,10 @@
         <v>1207</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
@@ -46444,10 +46445,10 @@
         <v>1207</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
@@ -46473,10 +46474,10 @@
         <v>825</v>
       </c>
       <c r="M364" t="s" s="2">
+        <v>1277</v>
+      </c>
+      <c r="N364" t="s" s="2">
         <v>1278</v>
-      </c>
-      <c r="N364" t="s" s="2">
-        <v>1279</v>
       </c>
       <c r="O364" s="2"/>
       <c r="P364" s="2"/>
@@ -46506,10 +46507,10 @@
         <v>656</v>
       </c>
       <c r="Z364" t="s" s="2">
-        <v>1262</v>
+        <v>1279</v>
       </c>
       <c r="AA364" t="s" s="2">
-        <v>1263</v>
+        <v>1280</v>
       </c>
       <c r="AB364" t="s" s="2">
         <v>74</v>
@@ -46527,7 +46528,7 @@
         <v>74</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>81</v>
@@ -46547,10 +46548,10 @@
         <v>1207</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
@@ -46576,10 +46577,10 @@
         <v>247</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="O365" s="2"/>
       <c r="P365" s="2"/>
@@ -46630,7 +46631,7 @@
         <v>74</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>81</v>
@@ -46650,10 +46651,10 @@
         <v>1207</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -46679,13 +46680,13 @@
         <v>113</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="O366" t="s" s="2">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="P366" s="2"/>
       <c r="Q366" t="s" s="2">
@@ -46714,10 +46715,10 @@
         <v>321</v>
       </c>
       <c r="Z366" t="s" s="2">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="AA366" t="s" s="2">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="AB366" t="s" s="2">
         <v>74</v>
@@ -46735,7 +46736,7 @@
         <v>74</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>75</v>
@@ -46755,10 +46756,10 @@
         <v>1207</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -46858,10 +46859,10 @@
         <v>1207</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -46963,10 +46964,10 @@
         <v>1207</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -47070,10 +47071,10 @@
         <v>1207</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -47173,10 +47174,10 @@
         <v>1207</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -47278,10 +47279,10 @@
         <v>1207</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -47385,10 +47386,10 @@
         <v>1207</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
@@ -47490,10 +47491,10 @@
         <v>1207</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
@@ -47595,10 +47596,10 @@
         <v>1207</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -47700,10 +47701,10 @@
         <v>1207</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
@@ -47807,10 +47808,10 @@
         <v>1207</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -47914,10 +47915,10 @@
         <v>1207</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -47943,10 +47944,10 @@
         <v>113</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="O378" s="2"/>
       <c r="P378" s="2"/>
@@ -47976,10 +47977,10 @@
         <v>321</v>
       </c>
       <c r="Z378" t="s" s="2">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="AA378" t="s" s="2">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="AB378" t="s" s="2">
         <v>74</v>
@@ -47997,7 +47998,7 @@
         <v>74</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>75</v>
@@ -48017,10 +48018,10 @@
         <v>1207</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -48046,10 +48047,10 @@
         <v>113</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="O379" s="2"/>
       <c r="P379" s="2"/>
@@ -48079,10 +48080,10 @@
         <v>321</v>
       </c>
       <c r="Z379" t="s" s="2">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="AA379" t="s" s="2">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="AB379" t="s" s="2">
         <v>74</v>
@@ -48100,7 +48101,7 @@
         <v>74</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>75</v>
@@ -48120,10 +48121,10 @@
         <v>1207</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -48149,13 +48150,13 @@
         <v>237</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="O380" t="s" s="2">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="P380" s="2"/>
       <c r="Q380" t="s" s="2">
@@ -48205,7 +48206,7 @@
         <v>74</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>75</v>
@@ -48225,10 +48226,10 @@
         <v>1207</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -48251,13 +48252,13 @@
         <v>126</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="O381" s="2"/>
       <c r="P381" s="2"/>
@@ -48308,7 +48309,7 @@
         <v>74</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>75</v>
@@ -48328,14 +48329,14 @@
         <v>1207</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" t="s" s="2">
@@ -48354,13 +48355,13 @@
         <v>74</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="O382" s="2"/>
       <c r="P382" s="2"/>
@@ -48411,7 +48412,7 @@
         <v>74</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>75</v>
@@ -48431,10 +48432,10 @@
         <v>1207</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -48460,10 +48461,10 @@
         <v>305</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="O383" s="2"/>
       <c r="P383" s="2"/>
@@ -48514,7 +48515,7 @@
         <v>74</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>75</v>
@@ -48534,10 +48535,10 @@
         <v>1207</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
@@ -48637,10 +48638,10 @@
         <v>1207</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -48742,10 +48743,10 @@
         <v>1207</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
@@ -48849,10 +48850,10 @@
         <v>1207</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -48878,13 +48879,13 @@
         <v>113</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="O387" t="s" s="2">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="P387" s="2"/>
       <c r="Q387" t="s" s="2">
@@ -48913,10 +48914,10 @@
         <v>656</v>
       </c>
       <c r="Z387" t="s" s="2">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="AA387" t="s" s="2">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AB387" t="s" s="2">
         <v>74</v>
@@ -48934,7 +48935,7 @@
         <v>74</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>75</v>
@@ -48954,10 +48955,10 @@
         <v>1207</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
@@ -48983,10 +48984,10 @@
         <v>247</v>
       </c>
       <c r="M388" t="s" s="2">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="N388" t="s" s="2">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="O388" s="2"/>
       <c r="P388" s="2"/>
@@ -49037,7 +49038,7 @@
         <v>74</v>
       </c>
       <c r="AG388" t="s" s="2">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="AH388" t="s" s="2">
         <v>75</v>
@@ -49057,10 +49058,10 @@
         <v>1207</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -49083,13 +49084,13 @@
         <v>126</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="O389" s="2"/>
       <c r="P389" s="2"/>
@@ -49140,7 +49141,7 @@
         <v>74</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>75</v>
@@ -49160,10 +49161,10 @@
         <v>1207</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -49186,13 +49187,13 @@
         <v>126</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="O390" s="2"/>
       <c r="P390" s="2"/>
@@ -49243,7 +49244,7 @@
         <v>74</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>75</v>
@@ -49263,10 +49264,10 @@
         <v>1207</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
@@ -49292,13 +49293,13 @@
         <v>247</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="O391" t="s" s="2">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="P391" s="2"/>
       <c r="Q391" t="s" s="2">
@@ -49348,7 +49349,7 @@
         <v>74</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>75</v>
@@ -49368,10 +49369,10 @@
         <v>1207</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -49471,10 +49472,10 @@
         <v>1207</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -49576,10 +49577,10 @@
         <v>1207</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -49605,7 +49606,7 @@
         <v>256</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="N394" t="s" s="2">
         <v>258</v>
@@ -49681,10 +49682,10 @@
         <v>1207</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -49710,7 +49711,7 @@
         <v>256</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="N395" t="s" s="2">
         <v>264</v>
@@ -49788,10 +49789,10 @@
         <v>1207</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -49814,16 +49815,16 @@
         <v>74</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="O396" t="s" s="2">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="P396" s="2"/>
       <c r="Q396" t="s" s="2">
@@ -49873,7 +49874,7 @@
         <v>74</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>75</v>
@@ -49893,14 +49894,14 @@
         <v>1207</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" t="s" s="2">
@@ -49922,13 +49923,13 @@
         <v>113</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O397" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="P397" s="2"/>
       <c r="Q397" t="s" s="2">
@@ -49957,10 +49958,10 @@
         <v>147</v>
       </c>
       <c r="Z397" t="s" s="2">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="AA397" t="s" s="2">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="AB397" t="s" s="2">
         <v>74</v>
@@ -49978,7 +49979,7 @@
         <v>74</v>
       </c>
       <c r="AG397" t="s" s="2">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="AH397" t="s" s="2">
         <v>75</v>
@@ -49998,14 +49999,14 @@
         <v>1207</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="F398" s="2"/>
       <c r="G398" t="s" s="2">
@@ -50024,16 +50025,16 @@
         <v>126</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="O398" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="P398" s="2"/>
       <c r="Q398" t="s" s="2">
@@ -50083,7 +50084,7 @@
         <v>74</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>75</v>
@@ -50103,10 +50104,10 @@
         <v>1207</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -50132,10 +50133,10 @@
         <v>305</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="O399" s="2"/>
       <c r="P399" s="2"/>
@@ -50186,7 +50187,7 @@
         <v>74</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>75</v>
@@ -50206,10 +50207,10 @@
         <v>1207</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -50309,10 +50310,10 @@
         <v>1207</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
@@ -50414,10 +50415,10 @@
         <v>1207</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
@@ -50521,14 +50522,14 @@
         <v>1207</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" t="s" s="2">
@@ -50547,16 +50548,16 @@
         <v>126</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="O403" t="s" s="2">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="P403" s="2"/>
       <c r="Q403" t="s" s="2">
@@ -50606,7 +50607,7 @@
         <v>74</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>81</v>
@@ -50626,10 +50627,10 @@
         <v>1207</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -50655,10 +50656,10 @@
         <v>113</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
@@ -50688,10 +50689,10 @@
         <v>147</v>
       </c>
       <c r="Z404" t="s" s="2">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="AA404" t="s" s="2">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AB404" t="s" s="2">
         <v>74</v>
@@ -50709,7 +50710,7 @@
         <v>74</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>75</v>
@@ -50729,10 +50730,10 @@
         <v>1207</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
@@ -50755,13 +50756,13 @@
         <v>74</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="O405" s="2"/>
       <c r="P405" s="2"/>
@@ -50812,7 +50813,7 @@
         <v>74</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AH405" t="s" s="2">
         <v>75</v>
@@ -50832,10 +50833,10 @@
         <v>1207</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
@@ -50858,16 +50859,16 @@
         <v>74</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="N406" t="s" s="2">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="O406" t="s" s="2">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="P406" s="2"/>
       <c r="Q406" t="s" s="2">
@@ -50917,7 +50918,7 @@
         <v>74</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>75</v>
@@ -50937,10 +50938,10 @@
         <v>1207</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -50966,13 +50967,13 @@
         <v>305</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="O407" t="s" s="2">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="P407" s="2"/>
       <c r="Q407" t="s" s="2">
@@ -51022,7 +51023,7 @@
         <v>74</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>75</v>
@@ -51042,10 +51043,10 @@
         <v>1207</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -51145,10 +51146,10 @@
         <v>1207</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -51250,10 +51251,10 @@
         <v>1207</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -51357,10 +51358,10 @@
         <v>1207</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -51386,10 +51387,10 @@
         <v>177</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="O411" s="2"/>
       <c r="P411" s="2"/>
@@ -51440,7 +51441,7 @@
         <v>74</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>75</v>
@@ -51460,10 +51461,10 @@
         <v>1207</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -51486,13 +51487,13 @@
         <v>74</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="O412" s="2"/>
       <c r="P412" s="2"/>
@@ -51543,7 +51544,7 @@
         <v>74</v>
       </c>
       <c r="AG412" t="s" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AH412" t="s" s="2">
         <v>75</v>
@@ -51563,10 +51564,10 @@
         <v>1207</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -51592,10 +51593,10 @@
         <v>113</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="O413" s="2"/>
       <c r="P413" s="2"/>
@@ -51625,10 +51626,10 @@
         <v>147</v>
       </c>
       <c r="Z413" t="s" s="2">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="AA413" t="s" s="2">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AB413" t="s" s="2">
         <v>74</v>
@@ -51646,7 +51647,7 @@
         <v>74</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>75</v>
@@ -51666,10 +51667,10 @@
         <v>1207</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
@@ -51695,10 +51696,10 @@
         <v>113</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
@@ -51728,10 +51729,10 @@
         <v>321</v>
       </c>
       <c r="Z414" t="s" s="2">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="AA414" t="s" s="2">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AB414" t="s" s="2">
         <v>74</v>
@@ -51749,7 +51750,7 @@
         <v>74</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>75</v>
@@ -51769,10 +51770,10 @@
         <v>1207</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -51798,16 +51799,16 @@
         <v>113</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="O415" t="s" s="2">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="P415" t="s" s="2">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="Q415" t="s" s="2">
         <v>74</v>
@@ -51835,10 +51836,10 @@
         <v>321</v>
       </c>
       <c r="Z415" t="s" s="2">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="AA415" t="s" s="2">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="AB415" t="s" s="2">
         <v>74</v>
@@ -51856,7 +51857,7 @@
         <v>74</v>
       </c>
       <c r="AG415" t="s" s="2">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AH415" t="s" s="2">
         <v>75</v>
@@ -51876,10 +51877,10 @@
         <v>1207</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -51905,10 +51906,10 @@
         <v>113</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
@@ -51938,10 +51939,10 @@
         <v>147</v>
       </c>
       <c r="Z416" t="s" s="2">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AA416" t="s" s="2">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="AB416" t="s" s="2">
         <v>74</v>
@@ -51959,7 +51960,7 @@
         <v>74</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>75</v>
@@ -51979,10 +51980,10 @@
         <v>1207</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
@@ -52008,10 +52009,10 @@
         <v>113</v>
       </c>
       <c r="M417" t="s" s="2">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="N417" t="s" s="2">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="O417" s="2"/>
       <c r="P417" s="2"/>
@@ -52041,10 +52042,10 @@
         <v>147</v>
       </c>
       <c r="Z417" t="s" s="2">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AA417" t="s" s="2">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AB417" t="s" s="2">
         <v>74</v>
@@ -52062,7 +52063,7 @@
         <v>74</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>75</v>
@@ -52082,10 +52083,10 @@
         <v>1207</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
@@ -52108,13 +52109,13 @@
         <v>74</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="N418" t="s" s="2">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="O418" s="2"/>
       <c r="P418" s="2"/>
@@ -52165,7 +52166,7 @@
         <v>74</v>
       </c>
       <c r="AG418" t="s" s="2">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AH418" t="s" s="2">
         <v>75</v>
@@ -52185,10 +52186,10 @@
         <v>1207</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
@@ -52214,10 +52215,10 @@
         <v>113</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="O419" s="2"/>
       <c r="P419" s="2"/>
@@ -52247,10 +52248,10 @@
         <v>321</v>
       </c>
       <c r="Z419" t="s" s="2">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="AA419" t="s" s="2">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="AB419" t="s" s="2">
         <v>74</v>
@@ -52268,7 +52269,7 @@
         <v>74</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="AH419" t="s" s="2">
         <v>75</v>
@@ -52288,10 +52289,10 @@
         <v>1207</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
@@ -52317,13 +52318,13 @@
         <v>305</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="O420" t="s" s="2">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="P420" s="2"/>
       <c r="Q420" t="s" s="2">
@@ -52373,7 +52374,7 @@
         <v>74</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AH420" t="s" s="2">
         <v>75</v>
@@ -52393,10 +52394,10 @@
         <v>1207</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -52496,10 +52497,10 @@
         <v>1207</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
@@ -52601,10 +52602,10 @@
         <v>1207</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
@@ -52708,10 +52709,10 @@
         <v>1207</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
@@ -52737,10 +52738,10 @@
         <v>408</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="O424" s="2"/>
       <c r="P424" s="2"/>
@@ -52791,7 +52792,7 @@
         <v>74</v>
       </c>
       <c r="AG424" t="s" s="2">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="AH424" t="s" s="2">
         <v>81</v>
@@ -52811,10 +52812,10 @@
         <v>1207</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -52840,13 +52841,13 @@
         <v>143</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="O425" t="s" s="2">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="P425" s="2"/>
       <c r="Q425" t="s" s="2">
@@ -52875,10 +52876,10 @@
         <v>211</v>
       </c>
       <c r="Z425" t="s" s="2">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="AA425" t="s" s="2">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="AB425" t="s" s="2">
         <v>74</v>
@@ -52896,7 +52897,7 @@
         <v>74</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="AH425" t="s" s="2">
         <v>75</v>
@@ -52916,10 +52917,10 @@
         <v>1207</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
@@ -52945,13 +52946,13 @@
         <v>113</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="N426" t="s" s="2">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="O426" t="s" s="2">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="P426" s="2"/>
       <c r="Q426" t="s" s="2">
@@ -52980,10 +52981,10 @@
         <v>321</v>
       </c>
       <c r="Z426" t="s" s="2">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="AA426" t="s" s="2">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="AB426" t="s" s="2">
         <v>74</v>
@@ -53001,7 +53002,7 @@
         <v>74</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>75</v>
@@ -53021,10 +53022,10 @@
         <v>1207</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -53050,10 +53051,10 @@
         <v>247</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="N427" t="s" s="2">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="O427" s="2"/>
       <c r="P427" s="2"/>
@@ -53104,7 +53105,7 @@
         <v>74</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>75</v>
@@ -53124,10 +53125,10 @@
         <v>1207</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
@@ -53153,10 +53154,10 @@
         <v>700</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
@@ -53207,7 +53208,7 @@
         <v>74</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>75</v>
@@ -53227,10 +53228,10 @@
         <v>1207</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
@@ -53256,13 +53257,13 @@
         <v>241</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="O429" t="s" s="2">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="P429" s="2"/>
       <c r="Q429" t="s" s="2">
@@ -53312,7 +53313,7 @@
         <v>74</v>
       </c>
       <c r="AG429" t="s" s="2">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AH429" t="s" s="2">
         <v>75</v>
@@ -53329,7 +53330,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>798</v>
@@ -53432,7 +53433,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>803</v>
@@ -53537,7 +53538,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>804</v>
@@ -53640,7 +53641,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>805</v>
@@ -53745,7 +53746,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>806</v>
@@ -53850,7 +53851,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>807</v>
@@ -53955,7 +53956,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>808</v>
@@ -54060,7 +54061,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>809</v>
@@ -54161,16 +54162,16 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C438" t="s" s="2">
         <v>809</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E438" t="s" s="2">
         <v>74</v>
@@ -54192,16 +54193,16 @@
         <v>74</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="M438" t="s" s="2">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="N438" t="s" s="2">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="O438" t="s" s="2">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="P438" s="2"/>
       <c r="Q438" t="s" s="2">
@@ -54268,16 +54269,16 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C439" t="s" s="2">
         <v>809</v>
       </c>
       <c r="D439" t="s" s="2">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E439" t="s" s="2">
         <v>74</v>
@@ -54299,13 +54300,13 @@
         <v>74</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="O439" s="2"/>
       <c r="P439" s="2"/>
@@ -54373,16 +54374,16 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C440" t="s" s="2">
         <v>809</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E440" t="s" s="2">
         <v>74</v>
@@ -54404,13 +54405,13 @@
         <v>74</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="M440" t="s" s="2">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="N440" t="s" s="2">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="O440" s="2"/>
       <c r="P440" s="2"/>
@@ -54478,7 +54479,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>810</v>
@@ -54585,7 +54586,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>811</v>
@@ -54692,7 +54693,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>815</v>
@@ -54797,7 +54798,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>866</v>
@@ -54829,10 +54830,10 @@
         <v>113</v>
       </c>
       <c r="M444" t="s" s="2">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="N444" t="s" s="2">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="O444" t="s" s="2">
         <v>868</v>
@@ -54902,7 +54903,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>883</v>
@@ -55007,7 +55008,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>902</v>
@@ -55112,7 +55113,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>907</v>
@@ -55179,10 +55180,10 @@
         <v>321</v>
       </c>
       <c r="Z447" t="s" s="2">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="AA447" t="s" s="2">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AB447" t="s" s="2">
         <v>74</v>
@@ -55217,7 +55218,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>913</v>
@@ -55320,7 +55321,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>914</v>
@@ -55425,7 +55426,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>915</v>
@@ -55457,7 +55458,7 @@
         <v>825</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="N450" t="s" s="2">
         <v>827</v>
@@ -55506,7 +55507,7 @@
         <v>462</v>
       </c>
       <c r="AD450" t="s" s="2">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AE450" t="s" s="2">
         <v>74</v>
@@ -55532,13 +55533,13 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C451" t="s" s="2">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" t="s" s="2">
@@ -55635,13 +55636,13 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -55740,13 +55741,13 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
@@ -55847,13 +55848,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -55952,13 +55953,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
@@ -56057,13 +56058,13 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
@@ -56162,13 +56163,13 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" t="s" s="2">
@@ -56269,16 +56270,16 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C458" t="s" s="2">
         <v>915</v>
       </c>
       <c r="D458" t="s" s="2">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="E458" t="s" s="2">
         <v>74</v>
@@ -56303,7 +56304,7 @@
         <v>825</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="N458" t="s" s="2">
         <v>827</v>
@@ -56378,13 +56379,13 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" t="s" s="2">
@@ -56481,13 +56482,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" t="s" s="2">
@@ -56586,13 +56587,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C461" t="s" s="2">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
@@ -56637,7 +56638,7 @@
         <v>74</v>
       </c>
       <c r="T461" t="s" s="2">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="U461" t="s" s="2">
         <v>74</v>
@@ -56693,13 +56694,13 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C462" t="s" s="2">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
@@ -56798,13 +56799,13 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C463" t="s" s="2">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
@@ -56903,13 +56904,13 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
@@ -57008,13 +57009,13 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
@@ -57115,16 +57116,16 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C466" t="s" s="2">
         <v>915</v>
       </c>
       <c r="D466" t="s" s="2">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="E466" t="s" s="2">
         <v>74</v>
@@ -57149,7 +57150,7 @@
         <v>825</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="N466" t="s" s="2">
         <v>827</v>
@@ -57187,7 +57188,7 @@
       </c>
       <c r="Z466" s="2"/>
       <c r="AA466" t="s" s="2">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AB466" t="s" s="2">
         <v>74</v>
@@ -57222,13 +57223,13 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C467" t="s" s="2">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
@@ -57325,13 +57326,13 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C468" t="s" s="2">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
@@ -57430,13 +57431,13 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C469" t="s" s="2">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" t="s" s="2">
@@ -57481,7 +57482,7 @@
         <v>74</v>
       </c>
       <c r="T469" t="s" s="2">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="U469" t="s" s="2">
         <v>74</v>
@@ -57537,13 +57538,13 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C470" t="s" s="2">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" t="s" s="2">
@@ -57642,13 +57643,13 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C471" t="s" s="2">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" t="s" s="2">
@@ -57747,13 +57748,13 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" t="s" s="2">
@@ -57852,13 +57853,13 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" t="s" s="2">
@@ -57959,16 +57960,16 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C474" t="s" s="2">
         <v>915</v>
       </c>
       <c r="D474" t="s" s="2">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="E474" t="s" s="2">
         <v>74</v>
@@ -57993,7 +57994,7 @@
         <v>825</v>
       </c>
       <c r="M474" t="s" s="2">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="N474" t="s" s="2">
         <v>827</v>
@@ -58068,13 +58069,13 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" t="s" s="2">
@@ -58171,13 +58172,13 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" t="s" s="2">
@@ -58276,13 +58277,13 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -58327,7 +58328,7 @@
         <v>74</v>
       </c>
       <c r="T477" t="s" s="2">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="U477" t="s" s="2">
         <v>74</v>
@@ -58383,13 +58384,13 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" t="s" s="2">
@@ -58488,13 +58489,13 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -58593,13 +58594,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -58698,13 +58699,13 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -58805,16 +58806,16 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C482" t="s" s="2">
         <v>915</v>
       </c>
       <c r="D482" t="s" s="2">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="E482" t="s" s="2">
         <v>74</v>
@@ -58839,7 +58840,7 @@
         <v>825</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="N482" t="s" s="2">
         <v>827</v>
@@ -58914,13 +58915,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -59017,13 +59018,13 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -59122,13 +59123,13 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -59173,7 +59174,7 @@
         <v>74</v>
       </c>
       <c r="T485" t="s" s="2">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="U485" t="s" s="2">
         <v>74</v>
@@ -59229,13 +59230,13 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -59334,13 +59335,13 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -59439,13 +59440,13 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -59544,13 +59545,13 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" t="s" s="2">
@@ -59651,16 +59652,16 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C490" t="s" s="2">
         <v>915</v>
       </c>
       <c r="D490" t="s" s="2">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E490" t="s" s="2">
         <v>74</v>
@@ -59685,7 +59686,7 @@
         <v>825</v>
       </c>
       <c r="M490" t="s" s="2">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="N490" t="s" s="2">
         <v>827</v>
@@ -59760,13 +59761,13 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" t="s" s="2">
@@ -59863,13 +59864,13 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
@@ -59968,13 +59969,13 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
@@ -60019,7 +60020,7 @@
         <v>74</v>
       </c>
       <c r="T493" t="s" s="2">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="U493" t="s" s="2">
         <v>74</v>
@@ -60075,13 +60076,13 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
@@ -60180,13 +60181,13 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -60285,13 +60286,13 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -60390,13 +60391,13 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
@@ -60497,7 +60498,7 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B498" t="s" s="2">
         <v>917</v>
@@ -60529,7 +60530,7 @@
         <v>82</v>
       </c>
       <c r="M498" t="s" s="2">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="N498" t="s" s="2">
         <v>862</v>
@@ -60604,7 +60605,7 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B499" t="s" s="2">
         <v>918</v>
@@ -60709,7 +60710,7 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B500" t="s" s="2">
         <v>924</v>
@@ -60738,10 +60739,10 @@
         <v>126</v>
       </c>
       <c r="L500" t="s" s="2">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="M500" t="s" s="2">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="N500" t="s" s="2">
         <v>926</v>
@@ -60814,7 +60815,7 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B501" t="s" s="2">
         <v>928</v>
@@ -60919,7 +60920,7 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B502" t="s" s="2">
         <v>931</v>
@@ -61024,7 +61025,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B503" t="s" s="2">
         <v>936</v>
@@ -61129,7 +61130,7 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B504" t="s" s="2">
         <v>941</v>
@@ -61232,7 +61233,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B505" t="s" s="2">
         <v>944</v>
@@ -61261,7 +61262,7 @@
         <v>126</v>
       </c>
       <c r="L505" t="s" s="2">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="M505" t="s" s="2">
         <v>946</v>
@@ -61335,7 +61336,7 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B506" t="s" s="2">
         <v>948</v>
@@ -61364,7 +61365,7 @@
         <v>126</v>
       </c>
       <c r="L506" t="s" s="2">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="M506" t="s" s="2">
         <v>949</v>
@@ -61438,7 +61439,7 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B507" t="s" s="2">
         <v>951</v>
@@ -61541,7 +61542,7 @@
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B508" t="s" s="2">
         <v>955</v>
@@ -61644,7 +61645,7 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B509" t="s" s="2">
         <v>956</v>
@@ -61749,7 +61750,7 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B510" t="s" s="2">
         <v>957</v>
@@ -61856,7 +61857,7 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B511" t="s" s="2">
         <v>958</v>
@@ -61959,7 +61960,7 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B512" t="s" s="2">
         <v>964</v>
@@ -62062,7 +62063,7 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B513" t="s" s="2">
         <v>968</v>
@@ -62165,7 +62166,7 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B514" t="s" s="2">
         <v>973</v>
@@ -62270,7 +62271,7 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B515" t="s" s="2">
         <v>978</v>
@@ -62373,7 +62374,7 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B516" t="s" s="2">
         <v>979</v>
@@ -62478,7 +62479,7 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B517" t="s" s="2">
         <v>980</v>
@@ -62585,7 +62586,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B518" t="s" s="2">
         <v>981</v>
@@ -62688,7 +62689,7 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B519" t="s" s="2">
         <v>987</v>
@@ -62791,7 +62792,7 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B520" t="s" s="2">
         <v>990</v>
@@ -62894,13 +62895,13 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" t="s" s="2">
@@ -62926,10 +62927,10 @@
         <v>77</v>
       </c>
       <c r="M521" t="s" s="2">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="N521" t="s" s="2">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="O521" s="2"/>
       <c r="P521" s="2"/>
@@ -62980,7 +62981,7 @@
         <v>74</v>
       </c>
       <c r="AG521" t="s" s="2">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AH521" t="s" s="2">
         <v>75</v>
@@ -62992,18 +62993,18 @@
         <v>74</v>
       </c>
       <c r="AK521" t="s" s="2">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" t="s" s="2">
@@ -63102,13 +63103,13 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" t="s" s="2">
@@ -63205,13 +63206,13 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -63310,13 +63311,13 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -63415,13 +63416,13 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -63520,13 +63521,13 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -63625,13 +63626,13 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
@@ -63730,13 +63731,13 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -63837,13 +63838,13 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -63869,14 +63870,14 @@
         <v>177</v>
       </c>
       <c r="M530" t="s" s="2">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="N530" t="s" s="2">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="O530" s="2"/>
       <c r="P530" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="Q530" t="s" s="2">
         <v>74</v>
@@ -63923,7 +63924,7 @@
         <v>91</v>
       </c>
       <c r="AG530" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AH530" t="s" s="2">
         <v>75</v>
@@ -63932,7 +63933,7 @@
         <v>76</v>
       </c>
       <c r="AJ530" t="s" s="2">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AK530" t="s" s="2">
         <v>102</v>
@@ -63940,16 +63941,16 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D531" t="s" s="2">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="E531" t="s" s="2">
         <v>74</v>
@@ -63971,7 +63972,7 @@
         <v>74</v>
       </c>
       <c r="L531" t="s" s="2">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="M531" t="s" s="2">
         <v>466</v>
@@ -63981,7 +63982,7 @@
       </c>
       <c r="O531" s="2"/>
       <c r="P531" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="Q531" t="s" s="2">
         <v>74</v>
@@ -64030,7 +64031,7 @@
         <v>74</v>
       </c>
       <c r="AG531" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AH531" t="s" s="2">
         <v>75</v>
@@ -64047,16 +64048,16 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D532" t="s" s="2">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E532" t="s" s="2">
         <v>74</v>
@@ -64081,14 +64082,14 @@
         <v>757</v>
       </c>
       <c r="M532" t="s" s="2">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="N532" t="s" s="2">
         <v>467</v>
       </c>
       <c r="O532" s="2"/>
       <c r="P532" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="Q532" t="s" s="2">
         <v>74</v>
@@ -64137,7 +64138,7 @@
         <v>74</v>
       </c>
       <c r="AG532" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AH532" t="s" s="2">
         <v>75</v>
@@ -64154,16 +64155,16 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D533" t="s" s="2">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="E533" t="s" s="2">
         <v>74</v>
@@ -64185,17 +64186,17 @@
         <v>74</v>
       </c>
       <c r="L533" t="s" s="2">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="M533" t="s" s="2">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="N533" t="s" s="2">
         <v>467</v>
       </c>
       <c r="O533" s="2"/>
       <c r="P533" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="Q533" t="s" s="2">
         <v>74</v>
@@ -64244,7 +64245,7 @@
         <v>74</v>
       </c>
       <c r="AG533" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AH533" t="s" s="2">
         <v>75</v>
@@ -64261,16 +64262,16 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D534" t="s" s="2">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="E534" t="s" s="2">
         <v>74</v>
@@ -64295,14 +64296,14 @@
         <v>177</v>
       </c>
       <c r="M534" t="s" s="2">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="N534" t="s" s="2">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="O534" s="2"/>
       <c r="P534" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="Q534" t="s" s="2">
         <v>74</v>
@@ -64351,7 +64352,7 @@
         <v>74</v>
       </c>
       <c r="AG534" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AH534" t="s" s="2">
         <v>75</v>
@@ -64360,7 +64361,7 @@
         <v>76</v>
       </c>
       <c r="AJ534" t="s" s="2">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AK534" t="s" s="2">
         <v>102</v>
@@ -64368,13 +64369,13 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -64471,13 +64472,13 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -64576,13 +64577,13 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -64608,16 +64609,16 @@
         <v>143</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="N537" t="s" s="2">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="O537" t="s" s="2">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="P537" t="s" s="2">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="Q537" t="s" s="2">
         <v>74</v>
@@ -64645,10 +64646,10 @@
         <v>211</v>
       </c>
       <c r="Z537" t="s" s="2">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="AA537" t="s" s="2">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="AB537" t="s" s="2">
         <v>74</v>
@@ -64666,7 +64667,7 @@
         <v>74</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AH537" t="s" s="2">
         <v>75</v>
@@ -64683,13 +64684,13 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -64715,16 +64716,16 @@
         <v>113</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="N538" t="s" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="O538" t="s" s="2">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="P538" t="s" s="2">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="Q538" t="s" s="2">
         <v>74</v>
@@ -64752,10 +64753,10 @@
         <v>656</v>
       </c>
       <c r="Z538" t="s" s="2">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AA538" t="s" s="2">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AB538" t="s" s="2">
         <v>74</v>
@@ -64773,7 +64774,7 @@
         <v>74</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>75</v>
@@ -64790,13 +64791,13 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -64822,29 +64823,29 @@
         <v>94</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="N539" t="s" s="2">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="O539" t="s" s="2">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="P539" t="s" s="2">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="Q539" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R539" s="2"/>
       <c r="S539" t="s" s="2">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="T539" t="s" s="2">
         <v>74</v>
       </c>
       <c r="U539" t="s" s="2">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="V539" t="s" s="2">
         <v>74</v>
@@ -64880,7 +64881,7 @@
         <v>74</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>75</v>
@@ -64897,13 +64898,13 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -64929,13 +64930,13 @@
         <v>82</v>
       </c>
       <c r="M540" t="s" s="2">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="N540" t="s" s="2">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="O540" t="s" s="2">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="P540" s="2"/>
       <c r="Q540" t="s" s="2">
@@ -64949,7 +64950,7 @@
         <v>74</v>
       </c>
       <c r="U540" t="s" s="2">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="V540" t="s" s="2">
         <v>74</v>
@@ -64985,7 +64986,7 @@
         <v>74</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>75</v>
@@ -65002,13 +65003,13 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -65034,10 +65035,10 @@
         <v>247</v>
       </c>
       <c r="M541" t="s" s="2">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="N541" t="s" s="2">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="O541" s="2"/>
       <c r="P541" s="2"/>
@@ -65088,7 +65089,7 @@
         <v>74</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AH541" t="s" s="2">
         <v>75</v>
@@ -65105,13 +65106,13 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
@@ -65137,13 +65138,13 @@
         <v>700</v>
       </c>
       <c r="M542" t="s" s="2">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="N542" t="s" s="2">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="O542" t="s" s="2">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -65193,7 +65194,7 @@
         <v>74</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>75</v>
@@ -65210,16 +65211,16 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D543" t="s" s="2">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="E543" t="s" s="2">
         <v>74</v>
@@ -65241,7 +65242,7 @@
         <v>74</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="M543" t="s" s="2">
         <v>466</v>
@@ -65251,7 +65252,7 @@
       </c>
       <c r="O543" s="2"/>
       <c r="P543" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="Q543" t="s" s="2">
         <v>74</v>
@@ -65300,7 +65301,7 @@
         <v>74</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AH543" t="s" s="2">
         <v>75</v>
@@ -65317,16 +65318,16 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D544" t="s" s="2">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="E544" t="s" s="2">
         <v>74</v>
@@ -65354,11 +65355,11 @@
         <v>582</v>
       </c>
       <c r="N544" t="s" s="2">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="O544" s="2"/>
       <c r="P544" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="Q544" t="s" s="2">
         <v>74</v>
@@ -65407,7 +65408,7 @@
         <v>74</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>75</v>
@@ -65416,7 +65417,7 @@
         <v>76</v>
       </c>
       <c r="AJ544" t="s" s="2">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AK544" t="s" s="2">
         <v>102</v>
@@ -65424,13 +65425,13 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -65527,13 +65528,13 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -65632,13 +65633,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -65664,16 +65665,16 @@
         <v>143</v>
       </c>
       <c r="M547" t="s" s="2">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="N547" t="s" s="2">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="O547" t="s" s="2">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="P547" t="s" s="2">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="Q547" t="s" s="2">
         <v>74</v>
@@ -65701,10 +65702,10 @@
         <v>211</v>
       </c>
       <c r="Z547" t="s" s="2">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="AA547" t="s" s="2">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="AB547" t="s" s="2">
         <v>74</v>
@@ -65722,7 +65723,7 @@
         <v>74</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>75</v>
@@ -65739,13 +65740,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -65771,16 +65772,16 @@
         <v>113</v>
       </c>
       <c r="M548" t="s" s="2">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="O548" t="s" s="2">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="P548" t="s" s="2">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="Q548" t="s" s="2">
         <v>74</v>
@@ -65808,10 +65809,10 @@
         <v>656</v>
       </c>
       <c r="Z548" t="s" s="2">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AA548" t="s" s="2">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AB548" t="s" s="2">
         <v>74</v>
@@ -65829,7 +65830,7 @@
         <v>74</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>75</v>
@@ -65846,13 +65847,13 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -65878,29 +65879,29 @@
         <v>94</v>
       </c>
       <c r="M549" t="s" s="2">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="N549" t="s" s="2">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="O549" t="s" s="2">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="P549" t="s" s="2">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="Q549" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R549" s="2"/>
       <c r="S549" t="s" s="2">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="T549" t="s" s="2">
         <v>74</v>
       </c>
       <c r="U549" t="s" s="2">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="V549" t="s" s="2">
         <v>74</v>
@@ -65936,7 +65937,7 @@
         <v>74</v>
       </c>
       <c r="AG549" t="s" s="2">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AH549" t="s" s="2">
         <v>75</v>
@@ -65953,13 +65954,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -65985,13 +65986,13 @@
         <v>82</v>
       </c>
       <c r="M550" t="s" s="2">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="N550" t="s" s="2">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="O550" t="s" s="2">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="P550" s="2"/>
       <c r="Q550" t="s" s="2">
@@ -66005,7 +66006,7 @@
         <v>74</v>
       </c>
       <c r="U550" t="s" s="2">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="V550" t="s" s="2">
         <v>74</v>
@@ -66021,7 +66022,7 @@
       </c>
       <c r="Z550" s="2"/>
       <c r="AA550" t="s" s="2">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="AB550" t="s" s="2">
         <v>74</v>
@@ -66039,7 +66040,7 @@
         <v>74</v>
       </c>
       <c r="AG550" t="s" s="2">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AH550" t="s" s="2">
         <v>75</v>
@@ -66056,13 +66057,13 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -66088,10 +66089,10 @@
         <v>247</v>
       </c>
       <c r="M551" t="s" s="2">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="N551" t="s" s="2">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="O551" s="2"/>
       <c r="P551" s="2"/>
@@ -66142,7 +66143,7 @@
         <v>74</v>
       </c>
       <c r="AG551" t="s" s="2">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AH551" t="s" s="2">
         <v>75</v>
@@ -66159,13 +66160,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -66191,13 +66192,13 @@
         <v>700</v>
       </c>
       <c r="M552" t="s" s="2">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="N552" t="s" s="2">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="O552" t="s" s="2">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
@@ -66247,7 +66248,7 @@
         <v>74</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>75</v>
@@ -66264,16 +66265,16 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D553" t="s" s="2">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E553" t="s" s="2">
         <v>74</v>
@@ -66301,11 +66302,11 @@
         <v>587</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="O553" s="2"/>
       <c r="P553" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="Q553" t="s" s="2">
         <v>74</v>
@@ -66354,7 +66355,7 @@
         <v>74</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>75</v>
@@ -66363,7 +66364,7 @@
         <v>76</v>
       </c>
       <c r="AJ553" t="s" s="2">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AK553" t="s" s="2">
         <v>102</v>
@@ -66371,13 +66372,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -66474,13 +66475,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -66579,13 +66580,13 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -66611,16 +66612,16 @@
         <v>143</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="O556" t="s" s="2">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="P556" t="s" s="2">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="Q556" t="s" s="2">
         <v>74</v>
@@ -66648,10 +66649,10 @@
         <v>211</v>
       </c>
       <c r="Z556" t="s" s="2">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="AA556" t="s" s="2">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="AB556" t="s" s="2">
         <v>74</v>
@@ -66669,7 +66670,7 @@
         <v>74</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>75</v>
@@ -66686,13 +66687,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -66718,16 +66719,16 @@
         <v>113</v>
       </c>
       <c r="M557" t="s" s="2">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="N557" t="s" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="O557" t="s" s="2">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="P557" t="s" s="2">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="Q557" t="s" s="2">
         <v>74</v>
@@ -66755,10 +66756,10 @@
         <v>656</v>
       </c>
       <c r="Z557" t="s" s="2">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AA557" t="s" s="2">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AB557" t="s" s="2">
         <v>74</v>
@@ -66776,7 +66777,7 @@
         <v>74</v>
       </c>
       <c r="AG557" t="s" s="2">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AH557" t="s" s="2">
         <v>75</v>
@@ -66793,13 +66794,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -66825,29 +66826,29 @@
         <v>94</v>
       </c>
       <c r="M558" t="s" s="2">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="N558" t="s" s="2">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="O558" t="s" s="2">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="P558" t="s" s="2">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="Q558" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R558" s="2"/>
       <c r="S558" t="s" s="2">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="T558" t="s" s="2">
         <v>74</v>
       </c>
       <c r="U558" t="s" s="2">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="V558" t="s" s="2">
         <v>74</v>
@@ -66883,7 +66884,7 @@
         <v>74</v>
       </c>
       <c r="AG558" t="s" s="2">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AH558" t="s" s="2">
         <v>75</v>
@@ -66900,13 +66901,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -66932,13 +66933,13 @@
         <v>82</v>
       </c>
       <c r="M559" t="s" s="2">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="N559" t="s" s="2">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="O559" t="s" s="2">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="P559" s="2"/>
       <c r="Q559" t="s" s="2">
@@ -66952,7 +66953,7 @@
         <v>74</v>
       </c>
       <c r="U559" t="s" s="2">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="V559" t="s" s="2">
         <v>74</v>
@@ -66988,7 +66989,7 @@
         <v>74</v>
       </c>
       <c r="AG559" t="s" s="2">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AH559" t="s" s="2">
         <v>75</v>
@@ -67005,13 +67006,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -67037,10 +67038,10 @@
         <v>247</v>
       </c>
       <c r="M560" t="s" s="2">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="N560" t="s" s="2">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="O560" s="2"/>
       <c r="P560" s="2"/>
@@ -67091,7 +67092,7 @@
         <v>74</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>75</v>
@@ -67108,13 +67109,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -67140,13 +67141,13 @@
         <v>700</v>
       </c>
       <c r="M561" t="s" s="2">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="N561" t="s" s="2">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="O561" t="s" s="2">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="P561" s="2"/>
       <c r="Q561" t="s" s="2">
@@ -67196,7 +67197,7 @@
         <v>74</v>
       </c>
       <c r="AG561" t="s" s="2">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="AH561" t="s" s="2">
         <v>75</v>
@@ -67213,16 +67214,16 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D562" t="s" s="2">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="E562" t="s" s="2">
         <v>74</v>
@@ -67244,17 +67245,17 @@
         <v>74</v>
       </c>
       <c r="L562" t="s" s="2">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="M562" t="s" s="2">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="N562" t="s" s="2">
         <v>467</v>
       </c>
       <c r="O562" s="2"/>
       <c r="P562" t="s" s="2">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="Q562" t="s" s="2">
         <v>74</v>
@@ -67303,7 +67304,7 @@
         <v>74</v>
       </c>
       <c r="AG562" t="s" s="2">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AH562" t="s" s="2">
         <v>75</v>
@@ -67320,13 +67321,13 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -67355,13 +67356,13 @@
         <v>475</v>
       </c>
       <c r="N563" t="s" s="2">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="O563" t="s" s="2">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="P563" t="s" s="2">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="Q563" t="s" s="2">
         <v>74</v>
@@ -67412,7 +67413,7 @@
         <v>74</v>
       </c>
       <c r="AG563" t="s" s="2">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>75</v>
@@ -67429,13 +67430,13 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -67461,16 +67462,16 @@
         <v>113</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="O564" t="s" s="2">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="P564" t="s" s="2">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="Q564" t="s" s="2">
         <v>74</v>
@@ -67499,7 +67500,7 @@
       </c>
       <c r="Z564" s="2"/>
       <c r="AA564" t="s" s="2">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AB564" t="s" s="2">
         <v>74</v>
@@ -67517,7 +67518,7 @@
         <v>74</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>75</v>
@@ -67534,13 +67535,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -67566,16 +67567,16 @@
         <v>82</v>
       </c>
       <c r="M565" t="s" s="2">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="N565" t="s" s="2">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="O565" t="s" s="2">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="P565" t="s" s="2">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="Q565" t="s" s="2">
         <v>74</v>
@@ -67624,7 +67625,7 @@
         <v>74</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>75</v>
@@ -67633,7 +67634,7 @@
         <v>81</v>
       </c>
       <c r="AJ565" t="s" s="2">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AK565" t="s" s="2">
         <v>102</v>
@@ -67641,13 +67642,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -67673,16 +67674,16 @@
         <v>82</v>
       </c>
       <c r="M566" t="s" s="2">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="N566" t="s" s="2">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="O566" t="s" s="2">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="P566" t="s" s="2">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="Q566" t="s" s="2">
         <v>74</v>
@@ -67731,7 +67732,7 @@
         <v>74</v>
       </c>
       <c r="AG566" t="s" s="2">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="AH566" t="s" s="2">
         <v>75</v>
@@ -67748,13 +67749,13 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -67780,16 +67781,16 @@
         <v>541</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="N567" t="s" s="2">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="O567" t="s" s="2">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="P567" t="s" s="2">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>74</v>
@@ -67838,7 +67839,7 @@
         <v>74</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>75</v>
@@ -67847,21 +67848,21 @@
         <v>76</v>
       </c>
       <c r="AJ567" t="s" s="2">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="AK567" t="s" s="2">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -67887,16 +67888,16 @@
         <v>572</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="N568" t="s" s="2">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="O568" t="s" s="2">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="P568" t="s" s="2">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>74</v>
@@ -67945,7 +67946,7 @@
         <v>74</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>75</v>
@@ -67954,21 +67955,21 @@
         <v>76</v>
       </c>
       <c r="AJ568" t="s" s="2">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="AK568" t="s" s="2">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -67994,14 +67995,14 @@
         <v>700</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" t="s" s="2">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="Q569" t="s" s="2">
         <v>74</v>
@@ -68050,7 +68051,7 @@
         <v>74</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>75</v>
@@ -68067,13 +68068,13 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -68099,16 +68100,16 @@
         <v>305</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="O570" t="s" s="2">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="P570" t="s" s="2">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="Q570" t="s" s="2">
         <v>74</v>
@@ -68157,7 +68158,7 @@
         <v>74</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>75</v>
@@ -68174,13 +68175,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -68277,13 +68278,13 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -68382,13 +68383,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -68489,13 +68490,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -68521,14 +68522,14 @@
         <v>113</v>
       </c>
       <c r="M574" t="s" s="2">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="N574" t="s" s="2">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="O574" s="2"/>
       <c r="P574" t="s" s="2">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="Q574" t="s" s="2">
         <v>74</v>
@@ -68556,10 +68557,10 @@
         <v>656</v>
       </c>
       <c r="Z574" t="s" s="2">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="AA574" t="s" s="2">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="AB574" t="s" s="2">
         <v>74</v>
@@ -68577,7 +68578,7 @@
         <v>74</v>
       </c>
       <c r="AG574" t="s" s="2">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="AH574" t="s" s="2">
         <v>75</v>
@@ -68594,13 +68595,13 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -68626,14 +68627,14 @@
         <v>481</v>
       </c>
       <c r="M575" t="s" s="2">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="N575" t="s" s="2">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="O575" s="2"/>
       <c r="P575" t="s" s="2">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="Q575" t="s" s="2">
         <v>74</v>
@@ -68682,7 +68683,7 @@
         <v>74</v>
       </c>
       <c r="AG575" t="s" s="2">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="AH575" t="s" s="2">
         <v>75</v>
@@ -68699,13 +68700,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -68731,10 +68732,10 @@
         <v>541</v>
       </c>
       <c r="M576" t="s" s="2">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="N576" t="s" s="2">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" t="s" s="2">
@@ -68787,7 +68788,7 @@
         <v>74</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>75</v>
@@ -68804,13 +68805,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -68836,14 +68837,14 @@
         <v>572</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="O577" s="2"/>
       <c r="P577" t="s" s="2">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="Q577" t="s" s="2">
         <v>74</v>
@@ -68892,7 +68893,7 @@
         <v>74</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>75</v>
@@ -68909,13 +68910,13 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -68938,17 +68939,17 @@
         <v>74</v>
       </c>
       <c r="L578" t="s" s="2">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="M578" t="s" s="2">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="N578" t="s" s="2">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="O578" s="2"/>
       <c r="P578" t="s" s="2">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="Q578" t="s" s="2">
         <v>74</v>
@@ -68997,7 +68998,7 @@
         <v>74</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>75</v>
@@ -69014,7 +69015,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B579" t="s" s="2">
         <v>119</v>
@@ -69112,12 +69113,12 @@
         <v>74</v>
       </c>
       <c r="AK579" t="s" s="2">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B580" t="s" s="2">
         <v>125</v>
@@ -69222,7 +69223,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B581" t="s" s="2">
         <v>132</v>
@@ -69325,7 +69326,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B582" t="s" s="2">
         <v>137</v>
@@ -69430,7 +69431,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>142</v>
@@ -69535,7 +69536,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B584" t="s" s="2">
         <v>151</v>
@@ -69640,7 +69641,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B585" t="s" s="2">
         <v>158</v>
@@ -69745,7 +69746,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B586" t="s" s="2">
         <v>165</v>
@@ -69846,16 +69847,16 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C587" t="s" s="2">
         <v>165</v>
       </c>
       <c r="D587" t="s" s="2">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="E587" t="s" s="2">
         <v>74</v>
@@ -69877,10 +69878,10 @@
         <v>74</v>
       </c>
       <c r="L587" t="s" s="2">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="M587" t="s" s="2">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="N587" t="s" s="2">
         <v>106</v>
@@ -69951,13 +69952,13 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -70054,13 +70055,13 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -70157,13 +70158,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -70262,13 +70263,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -70291,7 +70292,7 @@
         <v>74</v>
       </c>
       <c r="L591" t="s" s="2">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="M591" t="s" s="2">
         <v>100</v>
@@ -70365,7 +70366,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>171</v>
@@ -70472,7 +70473,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>176</v>
@@ -70579,7 +70580,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>182</v>
@@ -70682,7 +70683,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>186</v>
@@ -70787,7 +70788,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>190</v>
@@ -70816,10 +70817,10 @@
         <v>126</v>
       </c>
       <c r="L596" t="s" s="2">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="M596" t="s" s="2">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="N596" t="s" s="2">
         <v>194</v>
@@ -70892,7 +70893,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>196</v>
@@ -70999,7 +71000,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>202</v>
@@ -71104,7 +71105,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B599" t="s" s="2">
         <v>206</v>
@@ -71136,7 +71137,7 @@
         <v>143</v>
       </c>
       <c r="M599" t="s" s="2">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="N599" t="s" s="2">
         <v>208</v>
@@ -71211,7 +71212,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B600" t="s" s="2">
         <v>214</v>
@@ -71243,7 +71244,7 @@
         <v>143</v>
       </c>
       <c r="M600" t="s" s="2">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="N600" t="s" s="2">
         <v>216</v>
@@ -71318,7 +71319,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B601" t="s" s="2">
         <v>222</v>
@@ -71350,7 +71351,7 @@
         <v>113</v>
       </c>
       <c r="M601" t="s" s="2">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="N601" t="s" s="2">
         <v>224</v>
@@ -71387,10 +71388,10 @@
         <v>321</v>
       </c>
       <c r="Z601" t="s" s="2">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="AA601" t="s" s="2">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="AB601" t="s" s="2">
         <v>74</v>
@@ -71425,7 +71426,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B602" t="s" s="2">
         <v>228</v>
@@ -71528,7 +71529,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B603" t="s" s="2">
         <v>231</v>
@@ -71633,7 +71634,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B604" t="s" s="2">
         <v>235</v>
@@ -71736,7 +71737,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B605" t="s" s="2">
         <v>240</v>
@@ -71841,7 +71842,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B606" t="s" s="2">
         <v>245</v>
@@ -71948,7 +71949,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B607" t="s" s="2">
         <v>252</v>
@@ -72051,7 +72052,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B608" t="s" s="2">
         <v>253</v>
@@ -72156,7 +72157,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B609" t="s" s="2">
         <v>255</v>
@@ -72188,7 +72189,7 @@
         <v>256</v>
       </c>
       <c r="M609" t="s" s="2">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="N609" t="s" s="2">
         <v>258</v>
@@ -72261,7 +72262,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B610" t="s" s="2">
         <v>262</v>
@@ -72293,7 +72294,7 @@
         <v>256</v>
       </c>
       <c r="M610" t="s" s="2">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="N610" t="s" s="2">
         <v>264</v>
@@ -72368,7 +72369,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>268</v>
@@ -72471,7 +72472,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>272</v>
@@ -72576,7 +72577,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>277</v>
@@ -72681,7 +72682,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>281</v>
@@ -72786,7 +72787,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B615" t="s" s="2">
         <v>286</v>
@@ -72893,7 +72894,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B616" t="s" s="2">
         <v>292</v>
@@ -73000,7 +73001,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B617" t="s" s="2">
         <v>298</v>
@@ -73107,7 +73108,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B618" t="s" s="2">
         <v>304</v>
@@ -73212,7 +73213,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B619" t="s" s="2">
         <v>310</v>
@@ -73315,7 +73316,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B620" t="s" s="2">
         <v>311</v>
@@ -73420,7 +73421,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B621" t="s" s="2">
         <v>312</v>
@@ -73527,7 +73528,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B622" t="s" s="2">
         <v>317</v>
@@ -73632,7 +73633,7 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B623" t="s" s="2">
         <v>324</v>
@@ -73661,7 +73662,7 @@
         <v>74</v>
       </c>
       <c r="L623" t="s" s="2">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="M623" t="s" s="2">
         <v>325</v>
@@ -73739,7 +73740,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B624" t="s" s="2">
         <v>329</v>
@@ -73846,7 +73847,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B625" t="s" s="2">
         <v>335</v>
@@ -73953,7 +73954,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B626" t="s" s="2">
         <v>342</v>
@@ -74058,7 +74059,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B627" t="s" s="2">
         <v>346</v>
@@ -74161,7 +74162,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B628" t="s" s="2">
         <v>347</v>
@@ -74262,16 +74263,16 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C629" t="s" s="2">
         <v>347</v>
       </c>
       <c r="D629" t="s" s="2">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="E629" t="s" s="2">
         <v>74</v>
@@ -74293,7 +74294,7 @@
         <v>74</v>
       </c>
       <c r="L629" t="s" s="2">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="M629" t="s" s="2">
         <v>109</v>
@@ -74367,13 +74368,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -74470,13 +74471,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -74573,13 +74574,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -74678,13 +74679,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -74781,13 +74782,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -74884,13 +74885,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -74989,13 +74990,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -75059,7 +75060,7 @@
       </c>
       <c r="Z636" s="2"/>
       <c r="AA636" t="s" s="2">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="AB636" t="s" s="2">
         <v>74</v>
@@ -75094,13 +75095,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -75201,7 +75202,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B638" t="s" s="2">
         <v>348</v>
@@ -75308,7 +75309,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B639" t="s" s="2">
         <v>349</v>
@@ -75413,7 +75414,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B640" t="s" s="2">
         <v>355</v>
@@ -75518,7 +75519,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B641" t="s" s="2">
         <v>359</v>
@@ -75625,7 +75626,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B642" t="s" s="2">
         <v>361</v>
@@ -75732,13 +75733,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -75835,13 +75836,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -75940,13 +75941,13 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -75972,7 +75973,7 @@
         <v>825</v>
       </c>
       <c r="M645" t="s" s="2">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="N645" t="s" s="2">
         <v>827</v>
@@ -76045,16 +76046,16 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D646" t="s" s="2">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="E646" t="s" s="2">
         <v>74</v>
@@ -76117,7 +76118,7 @@
       </c>
       <c r="Z646" s="2"/>
       <c r="AA646" t="s" s="2">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="AB646" t="s" s="2">
         <v>74</v>
@@ -76152,13 +76153,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -76255,13 +76256,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -76360,13 +76361,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -76411,7 +76412,7 @@
         <v>74</v>
       </c>
       <c r="T649" t="s" s="2">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="U649" t="s" s="2">
         <v>74</v>
@@ -76467,13 +76468,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -76572,13 +76573,13 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -76677,13 +76678,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -76782,13 +76783,13 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -76889,16 +76890,16 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D654" t="s" s="2">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E654" t="s" s="2">
         <v>74</v>
@@ -76926,7 +76927,7 @@
         <v>826</v>
       </c>
       <c r="N654" t="s" s="2">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="O654" t="s" s="2">
         <v>828</v>
@@ -76998,13 +76999,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -77101,13 +77102,13 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" t="s" s="2">
@@ -77206,13 +77207,13 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
@@ -77257,7 +77258,7 @@
         <v>74</v>
       </c>
       <c r="T657" t="s" s="2">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="U657" t="s" s="2">
         <v>74</v>
@@ -77313,13 +77314,13 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C658" t="s" s="2">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D658" s="2"/>
       <c r="E658" t="s" s="2">
@@ -77418,13 +77419,13 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C659" t="s" s="2">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" t="s" s="2">
@@ -77523,13 +77524,13 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C660" t="s" s="2">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" t="s" s="2">
@@ -77628,13 +77629,13 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C661" t="s" s="2">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" t="s" s="2">
@@ -77735,13 +77736,13 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C662" t="s" s="2">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D662" s="2"/>
       <c r="E662" t="s" s="2">
@@ -77842,7 +77843,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>368</v>
@@ -77947,7 +77948,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>374</v>
@@ -77976,13 +77977,13 @@
         <v>74</v>
       </c>
       <c r="L664" t="s" s="2">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="M664" t="s" s="2">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="N664" t="s" s="2">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="O664" t="s" s="2">
         <v>378</v>
@@ -78052,7 +78053,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>379</v>
@@ -78157,7 +78158,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>383</v>
@@ -78189,7 +78190,7 @@
         <v>143</v>
       </c>
       <c r="M666" t="s" s="2">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="N666" t="s" s="2">
         <v>385</v>
@@ -78264,7 +78265,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>390</v>
@@ -78296,7 +78297,7 @@
         <v>113</v>
       </c>
       <c r="M667" t="s" s="2">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="N667" t="s" s="2">
         <v>392</v>
@@ -78369,7 +78370,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>395</v>
@@ -78478,7 +78479,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>402</v>
@@ -78583,7 +78584,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>407</v>
@@ -78690,7 +78691,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>413</v>
@@ -78722,7 +78723,7 @@
         <v>414</v>
       </c>
       <c r="M671" t="s" s="2">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="N671" t="s" s="2">
         <v>416</v>
@@ -78797,7 +78798,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>418</v>
@@ -78900,7 +78901,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>424</v>
@@ -79005,7 +79006,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>430</v>
@@ -79108,7 +79109,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>433</v>
@@ -79211,7 +79212,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>436</v>
@@ -79316,17 +79317,17 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" t="s" s="2">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="F677" s="2"/>
       <c r="G677" t="s" s="2">
@@ -79348,10 +79349,10 @@
         <v>77</v>
       </c>
       <c r="M677" t="s" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="N677" t="s" s="2">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="O677" s="2"/>
       <c r="P677" s="2"/>
@@ -79402,7 +79403,7 @@
         <v>74</v>
       </c>
       <c r="AG677" t="s" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="AH677" t="s" s="2">
         <v>75</v>
@@ -79414,18 +79415,18 @@
         <v>74</v>
       </c>
       <c r="AK677" t="s" s="2">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" t="s" s="2">
@@ -79524,13 +79525,13 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
@@ -79627,13 +79628,13 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
@@ -79732,13 +79733,13 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -79837,13 +79838,13 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -79942,13 +79943,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -80047,13 +80048,13 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -80152,13 +80153,13 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -80259,13 +80260,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -80291,13 +80292,13 @@
         <v>177</v>
       </c>
       <c r="M686" t="s" s="2">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="N686" t="s" s="2">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="O686" t="s" s="2">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="P686" s="2"/>
       <c r="Q686" t="s" s="2">
@@ -80347,7 +80348,7 @@
         <v>74</v>
       </c>
       <c r="AG686" t="s" s="2">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="AH686" t="s" s="2">
         <v>75</v>
@@ -80364,13 +80365,13 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
@@ -80393,16 +80394,16 @@
         <v>126</v>
       </c>
       <c r="L687" t="s" s="2">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="M687" t="s" s="2">
         <v>184</v>
       </c>
       <c r="N687" t="s" s="2">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="O687" t="s" s="2">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="P687" s="2"/>
       <c r="Q687" t="s" s="2">
@@ -80452,7 +80453,7 @@
         <v>74</v>
       </c>
       <c r="AG687" t="s" s="2">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="AH687" t="s" s="2">
         <v>75</v>
@@ -80469,13 +80470,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
@@ -80504,7 +80505,7 @@
         <v>187</v>
       </c>
       <c r="N688" t="s" s="2">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="O688" t="s" s="2">
         <v>189</v>
@@ -80557,7 +80558,7 @@
         <v>74</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>75</v>
@@ -80574,13 +80575,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -80603,13 +80604,13 @@
         <v>126</v>
       </c>
       <c r="L689" t="s" s="2">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="M689" t="s" s="2">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="N689" t="s" s="2">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="O689" s="2"/>
       <c r="P689" s="2"/>
@@ -80660,7 +80661,7 @@
         <v>74</v>
       </c>
       <c r="AG689" t="s" s="2">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="AH689" t="s" s="2">
         <v>75</v>
@@ -80677,17 +80678,17 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="F690" s="2"/>
       <c r="G690" t="s" s="2">
@@ -80706,13 +80707,13 @@
         <v>126</v>
       </c>
       <c r="L690" t="s" s="2">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="M690" t="s" s="2">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="N690" t="s" s="2">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="O690" s="2"/>
       <c r="P690" s="2"/>
@@ -80763,7 +80764,7 @@
         <v>74</v>
       </c>
       <c r="AG690" t="s" s="2">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="AH690" t="s" s="2">
         <v>75</v>
@@ -80780,17 +80781,17 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="F691" s="2"/>
       <c r="G691" t="s" s="2">
@@ -80812,16 +80813,16 @@
         <v>177</v>
       </c>
       <c r="M691" t="s" s="2">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="N691" t="s" s="2">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="O691" t="s" s="2">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="P691" t="s" s="2">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="Q691" t="s" s="2">
         <v>74</v>
@@ -80870,7 +80871,7 @@
         <v>74</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>75</v>
@@ -80887,13 +80888,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -80919,13 +80920,13 @@
         <v>143</v>
       </c>
       <c r="M692" t="s" s="2">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="N692" t="s" s="2">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="O692" t="s" s="2">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="P692" s="2"/>
       <c r="Q692" t="s" s="2">
@@ -80954,7 +80955,7 @@
         <v>211</v>
       </c>
       <c r="Z692" t="s" s="2">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="AA692" t="s" s="2">
         <v>213</v>
@@ -80975,7 +80976,7 @@
         <v>74</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>81</v>
@@ -80992,13 +80993,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -81024,10 +81025,10 @@
         <v>143</v>
       </c>
       <c r="M693" t="s" s="2">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="N693" t="s" s="2">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="O693" t="s" s="2">
         <v>217</v>
@@ -81059,10 +81060,10 @@
         <v>211</v>
       </c>
       <c r="Z693" t="s" s="2">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="AA693" t="s" s="2">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="AB693" t="s" s="2">
         <v>74</v>
@@ -81080,7 +81081,7 @@
         <v>74</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>81</v>
@@ -81097,13 +81098,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -81129,16 +81130,16 @@
         <v>113</v>
       </c>
       <c r="M694" t="s" s="2">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="N694" t="s" s="2">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="O694" t="s" s="2">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="P694" t="s" s="2">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="Q694" t="s" s="2">
         <v>74</v>
@@ -81166,10 +81167,10 @@
         <v>321</v>
       </c>
       <c r="Z694" t="s" s="2">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="AA694" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="AB694" t="s" s="2">
         <v>74</v>
@@ -81187,7 +81188,7 @@
         <v>74</v>
       </c>
       <c r="AG694" t="s" s="2">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="AH694" t="s" s="2">
         <v>75</v>
@@ -81204,13 +81205,13 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -81236,10 +81237,10 @@
         <v>143</v>
       </c>
       <c r="M695" t="s" s="2">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="N695" t="s" s="2">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="O695" s="2"/>
       <c r="P695" s="2"/>
@@ -81247,7 +81248,7 @@
         <v>74</v>
       </c>
       <c r="R695" t="s" s="2">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="S695" t="s" s="2">
         <v>74</v>
@@ -81271,10 +81272,10 @@
         <v>211</v>
       </c>
       <c r="Z695" t="s" s="2">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="AA695" t="s" s="2">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="AB695" t="s" s="2">
         <v>74</v>
@@ -81292,7 +81293,7 @@
         <v>74</v>
       </c>
       <c r="AG695" t="s" s="2">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="AH695" t="s" s="2">
         <v>75</v>
@@ -81309,13 +81310,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -81341,67 +81342,67 @@
         <v>396</v>
       </c>
       <c r="M696" t="s" s="2">
+        <v>1905</v>
+      </c>
+      <c r="N696" t="s" s="2">
+        <v>1906</v>
+      </c>
+      <c r="O696" t="s" s="2">
+        <v>1907</v>
+      </c>
+      <c r="P696" t="s" s="2">
+        <v>1908</v>
+      </c>
+      <c r="Q696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R696" t="s" s="2">
+        <v>1909</v>
+      </c>
+      <c r="S696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF696" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG696" t="s" s="2">
         <v>1904</v>
-      </c>
-      <c r="N696" t="s" s="2">
-        <v>1905</v>
-      </c>
-      <c r="O696" t="s" s="2">
-        <v>1906</v>
-      </c>
-      <c r="P696" t="s" s="2">
-        <v>1907</v>
-      </c>
-      <c r="Q696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R696" t="s" s="2">
-        <v>1908</v>
-      </c>
-      <c r="S696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF696" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG696" t="s" s="2">
-        <v>1903</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>75</v>
@@ -81418,17 +81419,17 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="F697" s="2"/>
       <c r="G697" t="s" s="2">
@@ -81450,13 +81451,13 @@
         <v>113</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="N697" t="s" s="2">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="O697" t="s" s="2">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="P697" s="2"/>
       <c r="Q697" t="s" s="2">
@@ -81485,7 +81486,7 @@
         <v>321</v>
       </c>
       <c r="Z697" t="s" s="2">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="AA697" t="s" s="2">
         <v>367</v>
@@ -81506,7 +81507,7 @@
         <v>74</v>
       </c>
       <c r="AG697" t="s" s="2">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="AH697" t="s" s="2">
         <v>75</v>
@@ -81523,13 +81524,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -81626,13 +81627,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -81731,13 +81732,13 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
@@ -81763,7 +81764,7 @@
         <v>825</v>
       </c>
       <c r="M700" t="s" s="2">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="N700" t="s" s="2">
         <v>827</v>
@@ -81801,7 +81802,7 @@
       </c>
       <c r="Z700" s="2"/>
       <c r="AA700" t="s" s="2">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="AB700" t="s" s="2">
         <v>74</v>
@@ -81836,13 +81837,13 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -81943,17 +81944,17 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="F702" s="2"/>
       <c r="G702" t="s" s="2">
@@ -81975,13 +81976,13 @@
         <v>113</v>
       </c>
       <c r="M702" t="s" s="2">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="N702" t="s" s="2">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="O702" t="s" s="2">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="P702" s="2"/>
       <c r="Q702" t="s" s="2">
@@ -82010,10 +82011,10 @@
         <v>321</v>
       </c>
       <c r="Z702" t="s" s="2">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="AA702" t="s" s="2">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="AB702" t="s" s="2">
         <v>74</v>
@@ -82031,7 +82032,7 @@
         <v>74</v>
       </c>
       <c r="AG702" t="s" s="2">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="AH702" t="s" s="2">
         <v>75</v>
@@ -82040,7 +82041,7 @@
         <v>76</v>
       </c>
       <c r="AJ702" t="s" s="2">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="AK702" t="s" s="2">
         <v>102</v>
@@ -82048,13 +82049,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -82077,17 +82078,17 @@
         <v>126</v>
       </c>
       <c r="L703" t="s" s="2">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="M703" t="s" s="2">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="N703" t="s" s="2">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="O703" s="2"/>
       <c r="P703" t="s" s="2">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="Q703" t="s" s="2">
         <v>74</v>
@@ -82136,7 +82137,7 @@
         <v>74</v>
       </c>
       <c r="AG703" t="s" s="2">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="AH703" t="s" s="2">
         <v>75</v>
@@ -82153,13 +82154,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -82185,10 +82186,10 @@
         <v>237</v>
       </c>
       <c r="M704" t="s" s="2">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="N704" t="s" s="2">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="O704" s="2"/>
       <c r="P704" s="2"/>
@@ -82239,7 +82240,7 @@
         <v>74</v>
       </c>
       <c r="AG704" t="s" s="2">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="AH704" t="s" s="2">
         <v>81</v>
@@ -82256,17 +82257,17 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="F705" s="2"/>
       <c r="G705" t="s" s="2">
@@ -82288,10 +82289,10 @@
         <v>241</v>
       </c>
       <c r="M705" t="s" s="2">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="N705" t="s" s="2">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="O705" s="2"/>
       <c r="P705" s="2"/>
@@ -82342,7 +82343,7 @@
         <v>74</v>
       </c>
       <c r="AG705" t="s" s="2">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="AH705" t="s" s="2">
         <v>75</v>
@@ -82359,17 +82360,17 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="F706" s="2"/>
       <c r="G706" t="s" s="2">
@@ -82388,13 +82389,13 @@
         <v>126</v>
       </c>
       <c r="L706" t="s" s="2">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="O706" s="2"/>
       <c r="P706" s="2"/>
@@ -82445,7 +82446,7 @@
         <v>74</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>75</v>
@@ -82462,13 +82463,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -82491,13 +82492,13 @@
         <v>126</v>
       </c>
       <c r="L707" t="s" s="2">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M707" t="s" s="2">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="N707" t="s" s="2">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="O707" s="2"/>
       <c r="P707" s="2"/>
@@ -82527,10 +82528,10 @@
         <v>321</v>
       </c>
       <c r="Z707" t="s" s="2">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="AA707" t="s" s="2">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="AB707" t="s" s="2">
         <v>74</v>
@@ -82548,7 +82549,7 @@
         <v>74</v>
       </c>
       <c r="AG707" t="s" s="2">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>75</v>
@@ -82565,17 +82566,17 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="F708" s="2"/>
       <c r="G708" t="s" s="2">
@@ -82597,10 +82598,10 @@
         <v>256</v>
       </c>
       <c r="M708" t="s" s="2">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="N708" t="s" s="2">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="O708" s="2"/>
       <c r="P708" s="2"/>
@@ -82651,7 +82652,7 @@
         <v>74</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>75</v>
@@ -82668,17 +82669,17 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="F709" s="2"/>
       <c r="G709" t="s" s="2">
@@ -82700,13 +82701,13 @@
         <v>414</v>
       </c>
       <c r="M709" t="s" s="2">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="N709" t="s" s="2">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="O709" t="s" s="2">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -82756,7 +82757,7 @@
         <v>74</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>75</v>
@@ -82773,17 +82774,17 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="F710" s="2"/>
       <c r="G710" t="s" s="2">
@@ -82805,13 +82806,13 @@
         <v>113</v>
       </c>
       <c r="M710" t="s" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="O710" t="s" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="P710" s="2"/>
       <c r="Q710" t="s" s="2">
@@ -82840,10 +82841,10 @@
         <v>321</v>
       </c>
       <c r="Z710" t="s" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="AA710" t="s" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="AB710" t="s" s="2">
         <v>74</v>
@@ -82861,7 +82862,7 @@
         <v>74</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>75</v>
@@ -82878,17 +82879,17 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="F711" s="2"/>
       <c r="G711" t="s" s="2">
@@ -82907,16 +82908,16 @@
         <v>126</v>
       </c>
       <c r="L711" t="s" s="2">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="O711" t="s" s="2">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="P711" s="2"/>
       <c r="Q711" t="s" s="2">
@@ -82966,7 +82967,7 @@
         <v>74</v>
       </c>
       <c r="AG711" t="s" s="2">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>75</v>
@@ -82983,13 +82984,13 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D712" s="2"/>
       <c r="E712" t="s" s="2">
@@ -83015,10 +83016,10 @@
         <v>113</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="N712" t="s" s="2">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="O712" s="2"/>
       <c r="P712" s="2"/>
@@ -83048,10 +83049,10 @@
         <v>321</v>
       </c>
       <c r="Z712" t="s" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="AA712" t="s" s="2">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="AB712" t="s" s="2">
         <v>74</v>
@@ -83069,7 +83070,7 @@
         <v>74</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>75</v>
@@ -83086,13 +83087,13 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -83118,10 +83119,10 @@
         <v>408</v>
       </c>
       <c r="M713" t="s" s="2">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="N713" t="s" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="O713" s="2"/>
       <c r="P713" s="2"/>
@@ -83172,7 +83173,7 @@
         <v>74</v>
       </c>
       <c r="AG713" t="s" s="2">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="AH713" t="s" s="2">
         <v>75</v>
@@ -83189,13 +83190,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -83221,13 +83222,13 @@
         <v>113</v>
       </c>
       <c r="M714" t="s" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="N714" t="s" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="O714" t="s" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="P714" s="2"/>
       <c r="Q714" t="s" s="2">
@@ -83256,10 +83257,10 @@
         <v>321</v>
       </c>
       <c r="Z714" t="s" s="2">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="AA714" t="s" s="2">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="AB714" t="s" s="2">
         <v>74</v>
@@ -83277,7 +83278,7 @@
         <v>74</v>
       </c>
       <c r="AG714" t="s" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="AH714" t="s" s="2">
         <v>75</v>
@@ -83294,13 +83295,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -83323,16 +83324,16 @@
         <v>126</v>
       </c>
       <c r="L715" t="s" s="2">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="M715" t="s" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="N715" t="s" s="2">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="O715" t="s" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="P715" s="2"/>
       <c r="Q715" t="s" s="2">
@@ -83382,7 +83383,7 @@
         <v>74</v>
       </c>
       <c r="AG715" t="s" s="2">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="AH715" t="s" s="2">
         <v>75</v>
@@ -83399,13 +83400,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -83428,13 +83429,13 @@
         <v>74</v>
       </c>
       <c r="L716" t="s" s="2">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="M716" t="s" s="2">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="N716" t="s" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="O716" s="2"/>
       <c r="P716" s="2"/>
@@ -83485,7 +83486,7 @@
         <v>74</v>
       </c>
       <c r="AG716" t="s" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>75</v>
@@ -83502,17 +83503,17 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F717" s="2"/>
       <c r="G717" t="s" s="2">
@@ -83534,13 +83535,13 @@
         <v>293</v>
       </c>
       <c r="M717" t="s" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="N717" t="s" s="2">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="O717" t="s" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="P717" s="2"/>
       <c r="Q717" t="s" s="2">
@@ -83590,7 +83591,7 @@
         <v>74</v>
       </c>
       <c r="AG717" t="s" s="2">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="AH717" t="s" s="2">
         <v>75</v>
@@ -83607,13 +83608,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -83636,16 +83637,16 @@
         <v>126</v>
       </c>
       <c r="L718" t="s" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="M718" t="s" s="2">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="N718" t="s" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="O718" t="s" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="P718" s="2"/>
       <c r="Q718" t="s" s="2">
@@ -83695,7 +83696,7 @@
         <v>74</v>
       </c>
       <c r="AG718" t="s" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="AH718" t="s" s="2">
         <v>75</v>
@@ -83712,17 +83713,17 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F719" s="2"/>
       <c r="G719" t="s" s="2">
@@ -83744,16 +83745,16 @@
         <v>113</v>
       </c>
       <c r="M719" t="s" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="N719" t="s" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="O719" t="s" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="P719" t="s" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="Q719" t="s" s="2">
         <v>74</v>
@@ -83802,7 +83803,7 @@
         <v>74</v>
       </c>
       <c r="AG719" t="s" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="AH719" t="s" s="2">
         <v>75</v>
@@ -83819,13 +83820,13 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -83854,7 +83855,7 @@
         <v>51</v>
       </c>
       <c r="N720" t="s" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="O720" s="2"/>
       <c r="P720" s="2"/>
@@ -83905,7 +83906,7 @@
         <v>74</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>75</v>
@@ -83922,13 +83923,13 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B721" t="s" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C721" t="s" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D721" s="2"/>
       <c r="E721" t="s" s="2">
@@ -83954,10 +83955,10 @@
         <v>82</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="N721" t="s" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="O721" s="2"/>
       <c r="P721" s="2"/>
@@ -84008,7 +84009,7 @@
         <v>74</v>
       </c>
       <c r="AG721" t="s" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="AH721" t="s" s="2">
         <v>75</v>
@@ -84025,13 +84026,13 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B722" t="s" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C722" t="s" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D722" s="2"/>
       <c r="E722" t="s" s="2">
@@ -84054,16 +84055,16 @@
         <v>74</v>
       </c>
       <c r="L722" t="s" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M722" t="s" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="N722" t="s" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="O722" t="s" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="P722" s="2"/>
       <c r="Q722" t="s" s="2">
@@ -84113,7 +84114,7 @@
         <v>74</v>
       </c>
       <c r="AG722" t="s" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="AH722" t="s" s="2">
         <v>75</v>
